--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -49,7 +49,7 @@
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-27</t>
+    <t>2025-11-28</t>
   </si>
   <si>
     <t>Prudential Financial, Inc.</t>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>날짜</t>
   </si>
@@ -34,22 +34,34 @@
     <t>5일수익률</t>
   </si>
   <si>
-    <t>점수</t>
-  </si>
-  <si>
-    <t>3일확률</t>
-  </si>
-  <si>
-    <t>5일확률</t>
-  </si>
-  <si>
-    <t>10일확률</t>
+    <t>점수(룰)</t>
+  </si>
+  <si>
+    <t>3일상승확률(%)</t>
+  </si>
+  <si>
+    <t>5일상승확률(%)</t>
+  </si>
+  <si>
+    <t>10일상승확률(%)</t>
+  </si>
+  <si>
+    <t>최종점수</t>
+  </si>
+  <si>
+    <t>예측방식</t>
   </si>
   <si>
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-28</t>
+    <t>MACRO_SCORE</t>
+  </si>
+  <si>
+    <t>MACRO_SIGNAL</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
   </si>
   <si>
     <t>Prudential Financial, Inc.</t>
@@ -58,25 +70,31 @@
     <t>UnitedHealth Group Incorporated</t>
   </si>
   <si>
+    <t>MetLife, Inc.</t>
+  </si>
+  <si>
     <t>American International Group, I</t>
   </si>
   <si>
-    <t>MetLife, Inc.</t>
-  </si>
-  <si>
     <t>PRU</t>
   </si>
   <si>
     <t>UNH</t>
   </si>
   <si>
+    <t>MET</t>
+  </si>
+  <si>
     <t>AIG</t>
   </si>
   <si>
-    <t>MET</t>
-  </si>
-  <si>
-    <t>건드리지 말기</t>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>⛔ 관망하십시오.</t>
+  </si>
+  <si>
+    <t>🟢 완화적 (상승 우위)</t>
   </si>
 </sst>
 </file>
@@ -434,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,145 +492,193 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>107.97</v>
-      </c>
-      <c r="E2">
-        <v>64.8</v>
+        <v>108.24</v>
       </c>
       <c r="F2">
-        <v>4.26</v>
+        <v>3.95</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>53</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J2">
+        <v>40</v>
+      </c>
+      <c r="K2">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>330.1</v>
+      </c>
+      <c r="F3">
+        <v>5.96</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>46</v>
+      </c>
+      <c r="I3">
+        <v>46</v>
+      </c>
+      <c r="J3">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
-        <v>20</v>
+      <c r="K3">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>329.71</v>
-      </c>
-      <c r="E3">
-        <v>55.4</v>
-      </c>
-      <c r="F3">
-        <v>6.67</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3">
-        <v>43</v>
-      </c>
-      <c r="I3">
-        <v>43</v>
-      </c>
-      <c r="J3">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>76.04000000000001</v>
-      </c>
-      <c r="E4">
-        <v>48.8</v>
+        <v>76.58</v>
       </c>
       <c r="F4">
-        <v>0.38</v>
+        <v>3.6</v>
       </c>
       <c r="G4">
         <v>30</v>
       </c>
       <c r="H4">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I4">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J4">
-        <v>56</v>
-      </c>
-      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4">
+        <v>54.6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.64</v>
+      </c>
+      <c r="G5">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>76.33</v>
-      </c>
-      <c r="E5">
-        <v>51.4</v>
-      </c>
-      <c r="F5">
-        <v>2.1</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
       <c r="H5">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I5">
         <v>50</v>
       </c>
       <c r="J5">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="K5">
+        <v>51.6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -516,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>108.24</v>
+        <v>108.44</v>
       </c>
       <c r="F2">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -534,7 +534,7 @@
         <v>40</v>
       </c>
       <c r="K2">
-        <v>59</v>
+        <v>59.2</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -543,7 +543,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -560,10 +560,10 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>330.1</v>
+        <v>330.04</v>
       </c>
       <c r="F3">
-        <v>5.96</v>
+        <v>5.94</v>
       </c>
       <c r="G3">
         <v>40</v>
@@ -578,7 +578,7 @@
         <v>33</v>
       </c>
       <c r="K3">
-        <v>56</v>
+        <v>56.2</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -587,7 +587,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -604,10 +604,10 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>76.58</v>
+        <v>76.61</v>
       </c>
       <c r="F4">
-        <v>3.6</v>
+        <v>3.64</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -616,13 +616,13 @@
         <v>36</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J4">
         <v>36</v>
       </c>
       <c r="K4">
-        <v>54.6</v>
+        <v>53.2</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -631,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -648,10 +648,10 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>76.18000000000001</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="F5">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -666,7 +666,7 @@
         <v>60</v>
       </c>
       <c r="K5">
-        <v>51.6</v>
+        <v>51.8</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -516,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>108.44</v>
+        <v>108.25</v>
       </c>
       <c r="F2">
-        <v>4.15</v>
+        <v>3.97</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -543,7 +543,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -560,10 +560,10 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>330.04</v>
+        <v>329.77</v>
       </c>
       <c r="F3">
-        <v>5.94</v>
+        <v>5.85</v>
       </c>
       <c r="G3">
         <v>40</v>
@@ -587,7 +587,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -648,10 +648,10 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>76.34999999999999</v>
+        <v>76.16</v>
       </c>
       <c r="F5">
-        <v>0.87</v>
+        <v>0.62</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -534,7 +534,7 @@
         <v>40</v>
       </c>
       <c r="K2">
-        <v>59.2</v>
+        <v>59.1</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -543,7 +543,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -578,7 +578,7 @@
         <v>33</v>
       </c>
       <c r="K3">
-        <v>56.2</v>
+        <v>56.1</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -587,7 +587,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -604,10 +604,10 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>76.61</v>
+        <v>76.56</v>
       </c>
       <c r="F4">
-        <v>3.64</v>
+        <v>3.57</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -616,13 +616,13 @@
         <v>36</v>
       </c>
       <c r="I4">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4">
         <v>36</v>
       </c>
       <c r="K4">
-        <v>53.2</v>
+        <v>54.7</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -631,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -666,7 +666,7 @@
         <v>60</v>
       </c>
       <c r="K5">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -543,7 +543,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -587,7 +587,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -534,7 +534,7 @@
         <v>40</v>
       </c>
       <c r="K2">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -543,7 +543,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -578,7 +578,7 @@
         <v>33</v>
       </c>
       <c r="K3">
-        <v>56.1</v>
+        <v>56.2</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -587,7 +587,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -622,7 +622,7 @@
         <v>36</v>
       </c>
       <c r="K4">
-        <v>54.7</v>
+        <v>54.8</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -631,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -666,7 +666,7 @@
         <v>60</v>
       </c>
       <c r="K5">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -543,7 +543,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -587,7 +587,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -543,7 +543,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -587,7 +587,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>날짜</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Pattern</t>
+  </si>
+  <si>
+    <t>📈 매수 관찰 구간입니다.</t>
   </si>
   <si>
     <t>⛔ 관망하십시오.</t>
@@ -518,11 +521,14 @@
       <c r="D2">
         <v>108.25</v>
       </c>
+      <c r="E2">
+        <v>62.7</v>
+      </c>
       <c r="F2">
         <v>3.97</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -534,7 +540,7 @@
         <v>40</v>
       </c>
       <c r="K2">
-        <v>59.2</v>
+        <v>62.2</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -543,10 +549,10 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -562,11 +568,14 @@
       <c r="D3">
         <v>329.77</v>
       </c>
+      <c r="E3">
+        <v>53.8</v>
+      </c>
       <c r="F3">
         <v>5.85</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -578,19 +587,19 @@
         <v>33</v>
       </c>
       <c r="K3">
-        <v>56.2</v>
+        <v>59.2</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -606,11 +615,14 @@
       <c r="D4">
         <v>76.56</v>
       </c>
+      <c r="E4">
+        <v>51.6</v>
+      </c>
       <c r="F4">
         <v>3.57</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>36</v>
@@ -622,19 +634,19 @@
         <v>36</v>
       </c>
       <c r="K4">
-        <v>54.8</v>
+        <v>57.8</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -650,11 +662,14 @@
       <c r="D5">
         <v>76.16</v>
       </c>
+      <c r="E5">
+        <v>45.8</v>
+      </c>
       <c r="F5">
         <v>0.62</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -666,19 +681,19 @@
         <v>60</v>
       </c>
       <c r="K5">
-        <v>51.8</v>
+        <v>54.8</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-11-29</t>
+    <t>2025-12-01</t>
   </si>
   <si>
     <t>Prudential Financial, Inc.</t>
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>날짜</t>
   </si>
@@ -61,27 +61,27 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-01</t>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>UnitedHealth Group Incorporated</t>
   </si>
   <si>
     <t>Prudential Financial, Inc.</t>
   </si>
   <si>
-    <t>UnitedHealth Group Incorporated</t>
-  </si>
-  <si>
     <t>MetLife, Inc.</t>
   </si>
   <si>
     <t>American International Group, I</t>
   </si>
   <si>
+    <t>UNH</t>
+  </si>
+  <si>
     <t>PRU</t>
   </si>
   <si>
-    <t>UNH</t>
-  </si>
-  <si>
     <t>MET</t>
   </si>
   <si>
@@ -91,13 +91,10 @@
     <t>Pattern</t>
   </si>
   <si>
-    <t>📈 매수 관찰 구간입니다.</t>
-  </si>
-  <si>
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 완화적 (상승 우위)</t>
+    <t>🟢 상승 우위 (다소 완화)</t>
   </si>
 </sst>
 </file>
@@ -519,28 +516,28 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>108.25</v>
+        <v>323.88</v>
       </c>
       <c r="E2">
-        <v>62.7</v>
+        <v>47.5</v>
       </c>
       <c r="F2">
-        <v>3.97</v>
+        <v>1.51</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I2">
         <v>46</v>
       </c>
       <c r="J2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K2">
-        <v>62.2</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -549,10 +546,10 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -566,16 +563,16 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>329.77</v>
+        <v>107.68</v>
       </c>
       <c r="E3">
-        <v>53.8</v>
+        <v>59.1</v>
       </c>
       <c r="F3">
-        <v>5.85</v>
+        <v>0.46</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -584,22 +581,22 @@
         <v>46</v>
       </c>
       <c r="J3">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>59.2</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
       <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>65.32892478746797</v>
+      </c>
+      <c r="O3" t="s">
         <v>26</v>
-      </c>
-      <c r="N3">
-        <v>85.92500513438651</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -613,40 +610,40 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>76.56</v>
+        <v>76.05</v>
       </c>
       <c r="E4">
-        <v>51.6</v>
+        <v>42.7</v>
       </c>
       <c r="F4">
-        <v>3.57</v>
+        <v>1.14</v>
       </c>
       <c r="G4">
         <v>40</v>
       </c>
       <c r="H4">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I4">
         <v>50</v>
       </c>
       <c r="J4">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>57.8</v>
+        <v>51.6</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
       <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>65.32892478746797</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
-      </c>
-      <c r="N4">
-        <v>85.92500513438651</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -660,40 +657,40 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>76.16</v>
+        <v>76.61</v>
       </c>
       <c r="E5">
-        <v>45.8</v>
+        <v>52.6</v>
       </c>
       <c r="F5">
-        <v>0.62</v>
+        <v>1.99</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I5">
+        <v>46</v>
+      </c>
+      <c r="J5">
+        <v>46</v>
+      </c>
+      <c r="K5">
         <v>50</v>
-      </c>
-      <c r="J5">
-        <v>60</v>
-      </c>
-      <c r="K5">
-        <v>54.8</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>65.32892478746797</v>
+      </c>
+      <c r="O5" t="s">
         <v>26</v>
-      </c>
-      <c r="N5">
-        <v>85.92500513438651</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -70,22 +70,22 @@
     <t>Prudential Financial, Inc.</t>
   </si>
   <si>
+    <t>American International Group, I</t>
+  </si>
+  <si>
     <t>MetLife, Inc.</t>
   </si>
   <si>
-    <t>American International Group, I</t>
-  </si>
-  <si>
     <t>UNH</t>
   </si>
   <si>
     <t>PRU</t>
   </si>
   <si>
+    <t>AIG</t>
+  </si>
+  <si>
     <t>MET</t>
-  </si>
-  <si>
-    <t>AIG</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -516,28 +516,28 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>323.88</v>
+        <v>324.54</v>
       </c>
       <c r="E2">
-        <v>47.5</v>
+        <v>48</v>
       </c>
       <c r="F2">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
+        <v>53</v>
+      </c>
+      <c r="I2">
         <v>50</v>
       </c>
-      <c r="I2">
-        <v>46</v>
-      </c>
       <c r="J2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K2">
-        <v>56</v>
+        <v>57.8</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,13 +563,13 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>107.68</v>
+        <v>107.85</v>
       </c>
       <c r="E3">
-        <v>59.1</v>
+        <v>59.9</v>
       </c>
       <c r="F3">
-        <v>0.46</v>
+        <v>0.62</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -584,7 +584,7 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>56</v>
+        <v>56.2</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,28 +610,28 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>76.05</v>
+        <v>76.95</v>
       </c>
       <c r="E4">
-        <v>42.7</v>
+        <v>54.3</v>
       </c>
       <c r="F4">
-        <v>1.14</v>
+        <v>2.45</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>50</v>
       </c>
       <c r="J4">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>51.6</v>
+        <v>54.8</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,28 +657,28 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>76.61</v>
+        <v>76.27</v>
       </c>
       <c r="E5">
-        <v>52.6</v>
+        <v>43.5</v>
       </c>
       <c r="F5">
-        <v>1.99</v>
+        <v>1.44</v>
       </c>
       <c r="G5">
         <v>40</v>
       </c>
       <c r="H5">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I5">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J5">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>날짜</t>
   </si>
@@ -61,40 +61,43 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-03</t>
+    <t>2025-12-05</t>
   </si>
   <si>
     <t>UnitedHealth Group Incorporated</t>
   </si>
   <si>
+    <t>MetLife, Inc.</t>
+  </si>
+  <si>
+    <t>American International Group, I</t>
+  </si>
+  <si>
     <t>Prudential Financial, Inc.</t>
   </si>
   <si>
-    <t>American International Group, I</t>
-  </si>
-  <si>
-    <t>MetLife, Inc.</t>
-  </si>
-  <si>
     <t>UNH</t>
   </si>
   <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>AIG</t>
+  </si>
+  <si>
     <t>PRU</t>
   </si>
   <si>
-    <t>AIG</t>
-  </si>
-  <si>
-    <t>MET</t>
-  </si>
-  <si>
     <t>Pattern</t>
   </si>
   <si>
+    <t>📈 매수 관찰 구간입니다.</t>
+  </si>
+  <si>
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 상승 우위 (다소 완화)</t>
+    <t>⚪ 중립 구간</t>
   </si>
 </sst>
 </file>
@@ -516,28 +519,28 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>324.54</v>
+        <v>334.26</v>
       </c>
       <c r="E2">
-        <v>48</v>
+        <v>51.2</v>
       </c>
       <c r="F2">
-        <v>1.72</v>
+        <v>1.38</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
+        <v>63</v>
+      </c>
+      <c r="I2">
+        <v>66</v>
+      </c>
+      <c r="J2">
         <v>53</v>
       </c>
-      <c r="I2">
-        <v>50</v>
-      </c>
-      <c r="J2">
-        <v>43</v>
-      </c>
       <c r="K2">
-        <v>57.8</v>
+        <v>60.1</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,10 +549,10 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -563,40 +566,40 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>107.85</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="E3">
-        <v>59.9</v>
+        <v>42.6</v>
       </c>
       <c r="F3">
-        <v>0.62</v>
+        <v>2.14</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>56.2</v>
+        <v>56.1</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -610,40 +613,40 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>76.95</v>
+        <v>77.45</v>
       </c>
       <c r="E4">
-        <v>54.3</v>
+        <v>44</v>
       </c>
       <c r="F4">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>54.8</v>
+        <v>49.7</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -657,40 +660,40 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>76.27</v>
+        <v>110.55</v>
       </c>
       <c r="E5">
-        <v>43.5</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F5">
-        <v>1.44</v>
+        <v>2.39</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I5">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="J5">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>53</v>
+        <v>48.1</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>334.26</v>
+        <v>333.94</v>
       </c>
       <c r="E2">
-        <v>51.2</v>
+        <v>50.9</v>
       </c>
       <c r="F2">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -566,13 +566,13 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>77.95999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E3">
-        <v>42.6</v>
+        <v>42.3</v>
       </c>
       <c r="F3">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -660,13 +660,13 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>110.55</v>
+        <v>110.51</v>
       </c>
       <c r="E5">
-        <v>64.40000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="F5">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="G5">
         <v>60</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>333.94</v>
+        <v>333.48</v>
       </c>
       <c r="E2">
-        <v>50.9</v>
+        <v>50.6</v>
       </c>
       <c r="F2">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -540,7 +540,7 @@
         <v>53</v>
       </c>
       <c r="K2">
-        <v>60.1</v>
+        <v>60.5</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -566,13 +566,13 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>77.90000000000001</v>
+        <v>78.08</v>
       </c>
       <c r="E3">
-        <v>42.3</v>
+        <v>43.3</v>
       </c>
       <c r="F3">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -587,7 +587,7 @@
         <v>33</v>
       </c>
       <c r="K3">
-        <v>56.1</v>
+        <v>56.5</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -613,13 +613,13 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>77.45</v>
+        <v>77.78</v>
       </c>
       <c r="E4">
-        <v>44</v>
+        <v>46.3</v>
       </c>
       <c r="F4">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="G4">
         <v>60</v>
@@ -634,7 +634,7 @@
         <v>40</v>
       </c>
       <c r="K4">
-        <v>49.7</v>
+        <v>50.1</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -660,28 +660,28 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>110.51</v>
+        <v>110.92</v>
       </c>
       <c r="E5">
-        <v>64.3</v>
+        <v>65.3</v>
       </c>
       <c r="F5">
-        <v>2.35</v>
+        <v>2.73</v>
       </c>
       <c r="G5">
         <v>60</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I5">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>48.1</v>
+        <v>50.1</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>333.48</v>
+        <v>333.35</v>
       </c>
       <c r="E2">
         <v>50.6</v>
       </c>
       <c r="F2">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -566,13 +566,13 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>78.08</v>
+        <v>78.17</v>
       </c>
       <c r="E3">
-        <v>43.3</v>
+        <v>43.7</v>
       </c>
       <c r="F3">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -581,13 +581,13 @@
         <v>50</v>
       </c>
       <c r="I3">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>56.5</v>
+        <v>58.1</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -613,13 +613,13 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>77.78</v>
+        <v>77.75</v>
       </c>
       <c r="E4">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="F4">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="G4">
         <v>60</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -660,16 +660,16 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>110.92</v>
+        <v>110.95</v>
       </c>
       <c r="E5">
-        <v>65.3</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F5">
-        <v>2.73</v>
+        <v>2.76</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -681,7 +681,7 @@
         <v>40</v>
       </c>
       <c r="K5">
-        <v>50.1</v>
+        <v>47.1</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>날짜</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Pattern</t>
-  </si>
-  <si>
-    <t>📈 매수 관찰 구간입니다.</t>
   </si>
   <si>
     <t>⛔ 관망하십시오.</t>
@@ -519,28 +516,28 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>333.35</v>
+        <v>331.56</v>
       </c>
       <c r="E2">
-        <v>50.6</v>
+        <v>49.4</v>
       </c>
       <c r="F2">
-        <v>1.1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
         <v>63</v>
       </c>
-      <c r="I2">
-        <v>66</v>
-      </c>
       <c r="J2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K2">
-        <v>60.5</v>
+        <v>59.4</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -549,10 +546,10 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -572,7 +569,7 @@
         <v>43.7</v>
       </c>
       <c r="F3">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -587,19 +584,19 @@
         <v>36</v>
       </c>
       <c r="K3">
-        <v>58.1</v>
+        <v>58.2</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
       <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>54.02451352198364</v>
+      </c>
+      <c r="O3" t="s">
         <v>26</v>
-      </c>
-      <c r="N3">
-        <v>53.71147335634279</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -613,19 +610,19 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>77.75</v>
+        <v>77.83</v>
       </c>
       <c r="E4">
-        <v>46.2</v>
+        <v>46.7</v>
       </c>
       <c r="F4">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="G4">
         <v>60</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>40</v>
@@ -634,19 +631,19 @@
         <v>40</v>
       </c>
       <c r="K4">
-        <v>50.1</v>
+        <v>50.2</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
       <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>54.02451352198364</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
-      </c>
-      <c r="N4">
-        <v>53.71147335634279</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -660,16 +657,16 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>110.95</v>
+        <v>110.76</v>
       </c>
       <c r="E5">
-        <v>65.40000000000001</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F5">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -681,19 +678,19 @@
         <v>40</v>
       </c>
       <c r="K5">
-        <v>47.1</v>
+        <v>50.2</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>54.02451352198364</v>
+      </c>
+      <c r="O5" t="s">
         <v>26</v>
-      </c>
-      <c r="N5">
-        <v>53.71147335634279</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>날짜</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Pattern</t>
+  </si>
+  <si>
+    <t>📈 매수 관찰 구간입니다.</t>
   </si>
   <si>
     <t>⛔ 관망하십시오.</t>
@@ -516,28 +519,28 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>331.56</v>
+        <v>333.49</v>
       </c>
       <c r="E2">
-        <v>49.4</v>
+        <v>50.6</v>
       </c>
       <c r="F2">
-        <v>0.5600000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K2">
-        <v>59.4</v>
+        <v>60.9</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,10 +549,10 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -563,13 +566,13 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>78.17</v>
+        <v>78.03</v>
       </c>
       <c r="E3">
-        <v>43.7</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>2.41</v>
+        <v>2.23</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -584,19 +587,19 @@
         <v>36</v>
       </c>
       <c r="K3">
-        <v>58.2</v>
+        <v>58.5</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -610,40 +613,40 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>77.83</v>
+        <v>77.28</v>
       </c>
       <c r="E4">
-        <v>46.7</v>
+        <v>42.7</v>
       </c>
       <c r="F4">
-        <v>2.35</v>
+        <v>1.63</v>
       </c>
       <c r="G4">
         <v>60</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>50.2</v>
+        <v>51.7</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -657,40 +660,40 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>110.76</v>
+        <v>110.25</v>
       </c>
       <c r="E5">
-        <v>64.90000000000001</v>
+        <v>63.7</v>
       </c>
       <c r="F5">
-        <v>2.58</v>
+        <v>2.11</v>
       </c>
       <c r="G5">
         <v>60</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J5">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>50.2</v>
+        <v>48.9</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -540,7 +540,7 @@
         <v>53</v>
       </c>
       <c r="K2">
-        <v>60.9</v>
+        <v>60.8</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -587,7 +587,7 @@
         <v>36</v>
       </c>
       <c r="K3">
-        <v>58.5</v>
+        <v>58.4</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -634,7 +634,7 @@
         <v>43</v>
       </c>
       <c r="K4">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -681,7 +681,7 @@
         <v>36</v>
       </c>
       <c r="K5">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -540,7 +540,7 @@
         <v>53</v>
       </c>
       <c r="K2">
-        <v>60.8</v>
+        <v>60.9</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -587,7 +587,7 @@
         <v>36</v>
       </c>
       <c r="K3">
-        <v>58.4</v>
+        <v>58.5</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -634,7 +634,7 @@
         <v>43</v>
       </c>
       <c r="K4">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -681,7 +681,7 @@
         <v>36</v>
       </c>
       <c r="K5">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -540,7 +540,7 @@
         <v>53</v>
       </c>
       <c r="K2">
-        <v>60.9</v>
+        <v>60.8</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -587,7 +587,7 @@
         <v>36</v>
       </c>
       <c r="K3">
-        <v>58.5</v>
+        <v>58.4</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -634,7 +634,7 @@
         <v>43</v>
       </c>
       <c r="K4">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -681,7 +681,7 @@
         <v>36</v>
       </c>
       <c r="K5">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>날짜</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Pattern</t>
-  </si>
-  <si>
-    <t>📈 매수 관찰 구간입니다.</t>
   </si>
   <si>
     <t>⛔ 관망하십시오.</t>
@@ -540,7 +537,7 @@
         <v>53</v>
       </c>
       <c r="K2">
-        <v>60.8</v>
+        <v>59.9</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -549,10 +546,10 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -587,19 +584,19 @@
         <v>36</v>
       </c>
       <c r="K3">
-        <v>58.4</v>
+        <v>57.5</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
       <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>51.53902399942638</v>
+      </c>
+      <c r="O3" t="s">
         <v>26</v>
-      </c>
-      <c r="N3">
-        <v>54.77309453746771</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -634,19 +631,19 @@
         <v>43</v>
       </c>
       <c r="K4">
-        <v>51.6</v>
+        <v>50.7</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
       <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>51.53902399942638</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
-      </c>
-      <c r="N4">
-        <v>54.77309453746771</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -681,19 +678,19 @@
         <v>36</v>
       </c>
       <c r="K5">
-        <v>48.8</v>
+        <v>47.9</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>51.53902399942638</v>
+      </c>
+      <c r="O5" t="s">
         <v>26</v>
-      </c>
-      <c r="N5">
-        <v>54.77309453746771</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -537,7 +537,7 @@
         <v>53</v>
       </c>
       <c r="K2">
-        <v>59.9</v>
+        <v>59.7</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -584,7 +584,7 @@
         <v>36</v>
       </c>
       <c r="K3">
-        <v>57.5</v>
+        <v>57.3</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -631,7 +631,7 @@
         <v>43</v>
       </c>
       <c r="K4">
-        <v>50.7</v>
+        <v>50.5</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="K5">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -61,28 +61,28 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-05</t>
+    <t>2025-12-06</t>
   </si>
   <si>
     <t>UnitedHealth Group Incorporated</t>
   </si>
   <si>
+    <t>American International Group, I</t>
+  </si>
+  <si>
     <t>MetLife, Inc.</t>
   </si>
   <si>
-    <t>American International Group, I</t>
-  </si>
-  <si>
     <t>Prudential Financial, Inc.</t>
   </si>
   <si>
     <t>UNH</t>
   </si>
   <si>
+    <t>AIG</t>
+  </si>
+  <si>
     <t>MET</t>
-  </si>
-  <si>
-    <t>AIG</t>
   </si>
   <si>
     <t>PRU</t>
@@ -516,28 +516,28 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>333.49</v>
+        <v>332.22</v>
       </c>
       <c r="E2">
-        <v>50.6</v>
+        <v>57.9</v>
       </c>
       <c r="F2">
-        <v>1.15</v>
+        <v>0.74</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I2">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K2">
-        <v>59.7</v>
+        <v>57.5</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,28 +563,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>78.03</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="E3">
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="F3">
-        <v>2.23</v>
+        <v>0.86</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
+        <v>46</v>
+      </c>
+      <c r="I3">
         <v>50</v>
       </c>
-      <c r="I3">
-        <v>60</v>
-      </c>
       <c r="J3">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>57.3</v>
+        <v>53.5</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,28 +610,28 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>77.28</v>
+        <v>78.29000000000001</v>
       </c>
       <c r="E4">
-        <v>42.7</v>
+        <v>48.2</v>
       </c>
       <c r="F4">
-        <v>1.63</v>
+        <v>2.26</v>
       </c>
       <c r="G4">
         <v>60</v>
       </c>
       <c r="H4">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I4">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J4">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>50.5</v>
+        <v>53.5</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,28 +657,28 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>110.25</v>
+        <v>111.05</v>
       </c>
       <c r="E5">
-        <v>63.7</v>
+        <v>68.8</v>
       </c>
       <c r="F5">
-        <v>2.11</v>
+        <v>2.59</v>
       </c>
       <c r="G5">
         <v>60</v>
       </c>
       <c r="H5">
+        <v>46</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+      <c r="J5">
         <v>43</v>
       </c>
-      <c r="I5">
-        <v>36</v>
-      </c>
-      <c r="J5">
-        <v>36</v>
-      </c>
       <c r="K5">
-        <v>47.7</v>
+        <v>49.5</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -67,22 +67,22 @@
     <t>UnitedHealth Group Incorporated</t>
   </si>
   <si>
+    <t>MetLife, Inc.</t>
+  </si>
+  <si>
     <t>American International Group, I</t>
   </si>
   <si>
-    <t>MetLife, Inc.</t>
-  </si>
-  <si>
     <t>Prudential Financial, Inc.</t>
   </si>
   <si>
     <t>UNH</t>
   </si>
   <si>
+    <t>MET</t>
+  </si>
+  <si>
     <t>AIG</t>
-  </si>
-  <si>
-    <t>MET</t>
   </si>
   <si>
     <t>PRU</t>
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>332.22</v>
+        <v>331.13</v>
       </c>
       <c r="E2">
-        <v>57.9</v>
+        <v>56.9</v>
       </c>
       <c r="F2">
-        <v>0.74</v>
+        <v>0.41</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -537,7 +537,7 @@
         <v>43</v>
       </c>
       <c r="K2">
-        <v>57.5</v>
+        <v>57.2</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,28 +563,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>76.81999999999999</v>
+        <v>78.42</v>
       </c>
       <c r="E3">
-        <v>43.5</v>
+        <v>48.9</v>
       </c>
       <c r="F3">
-        <v>0.86</v>
+        <v>2.43</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>53.5</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,28 +610,28 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>78.29000000000001</v>
+        <v>77.22</v>
       </c>
       <c r="E4">
-        <v>48.2</v>
+        <v>46.1</v>
       </c>
       <c r="F4">
-        <v>2.26</v>
+        <v>1.39</v>
       </c>
       <c r="G4">
         <v>60</v>
       </c>
       <c r="H4">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J4">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>53.5</v>
+        <v>51.6</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,28 +657,28 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>111.05</v>
+        <v>111.55</v>
       </c>
       <c r="E5">
-        <v>68.8</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F5">
-        <v>2.59</v>
+        <v>3.05</v>
       </c>
       <c r="G5">
         <v>60</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J5">
         <v>43</v>
       </c>
       <c r="K5">
-        <v>49.5</v>
+        <v>46.4</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -67,22 +67,22 @@
     <t>UnitedHealth Group Incorporated</t>
   </si>
   <si>
+    <t>American International Group, I</t>
+  </si>
+  <si>
     <t>MetLife, Inc.</t>
   </si>
   <si>
-    <t>American International Group, I</t>
-  </si>
-  <si>
     <t>Prudential Financial, Inc.</t>
   </si>
   <si>
     <t>UNH</t>
   </si>
   <si>
+    <t>AIG</t>
+  </si>
+  <si>
     <t>MET</t>
-  </si>
-  <si>
-    <t>AIG</t>
   </si>
   <si>
     <t>PRU</t>
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>331.13</v>
+        <v>331.4</v>
       </c>
       <c r="E2">
-        <v>56.9</v>
+        <v>57.2</v>
       </c>
       <c r="F2">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,28 +563,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>78.42</v>
+        <v>77.16</v>
       </c>
       <c r="E3">
-        <v>48.9</v>
+        <v>45.7</v>
       </c>
       <c r="F3">
-        <v>2.43</v>
+        <v>1.32</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>54.4</v>
+        <v>53.2</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,28 +610,28 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>77.22</v>
+        <v>78.36</v>
       </c>
       <c r="E4">
-        <v>46.1</v>
+        <v>48.5</v>
       </c>
       <c r="F4">
-        <v>1.39</v>
+        <v>2.35</v>
       </c>
       <c r="G4">
         <v>60</v>
       </c>
       <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4">
         <v>50</v>
       </c>
-      <c r="I4">
-        <v>46</v>
-      </c>
       <c r="J4">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>51.6</v>
+        <v>53.2</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,28 +657,28 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>111.55</v>
+        <v>111.38</v>
       </c>
       <c r="E5">
-        <v>69.90000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="F5">
-        <v>3.05</v>
+        <v>2.89</v>
       </c>
       <c r="G5">
         <v>60</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J5">
         <v>43</v>
       </c>
       <c r="K5">
-        <v>46.4</v>
+        <v>47.6</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -67,22 +67,22 @@
     <t>UnitedHealth Group Incorporated</t>
   </si>
   <si>
+    <t>MetLife, Inc.</t>
+  </si>
+  <si>
     <t>American International Group, I</t>
   </si>
   <si>
-    <t>MetLife, Inc.</t>
-  </si>
-  <si>
     <t>Prudential Financial, Inc.</t>
   </si>
   <si>
     <t>UNH</t>
   </si>
   <si>
+    <t>MET</t>
+  </si>
+  <si>
     <t>AIG</t>
-  </si>
-  <si>
-    <t>MET</t>
   </si>
   <si>
     <t>PRU</t>
@@ -516,28 +516,28 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>331.4</v>
+        <v>329.26</v>
       </c>
       <c r="E2">
-        <v>57.2</v>
+        <v>55.4</v>
       </c>
       <c r="F2">
-        <v>0.49</v>
+        <v>-0.15</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K2">
-        <v>57.2</v>
+        <v>54.9</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,28 +563,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>77.16</v>
+        <v>78.34999999999999</v>
       </c>
       <c r="E3">
-        <v>45.7</v>
+        <v>48.5</v>
       </c>
       <c r="F3">
-        <v>1.32</v>
+        <v>2.34</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I3">
         <v>50</v>
       </c>
       <c r="J3">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>53.2</v>
+        <v>52.7</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,28 +610,28 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>78.36</v>
+        <v>76.59</v>
       </c>
       <c r="E4">
-        <v>48.5</v>
+        <v>42.2</v>
       </c>
       <c r="F4">
-        <v>2.35</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I4">
         <v>50</v>
       </c>
       <c r="J4">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>53.2</v>
+        <v>49.7</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,13 +657,13 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>111.38</v>
+        <v>111.3</v>
       </c>
       <c r="E5">
-        <v>69.5</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F5">
-        <v>2.89</v>
+        <v>2.82</v>
       </c>
       <c r="G5">
         <v>60</v>
@@ -678,7 +678,7 @@
         <v>43</v>
       </c>
       <c r="K5">
-        <v>47.6</v>
+        <v>47.1</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>

--- a/DECISION/헷징_보험_분석.xlsx
+++ b/DECISION/헷징_보험_분석.xlsx
@@ -67,22 +67,22 @@
     <t>UnitedHealth Group Incorporated</t>
   </si>
   <si>
+    <t>American International Group, I</t>
+  </si>
+  <si>
     <t>MetLife, Inc.</t>
   </si>
   <si>
-    <t>American International Group, I</t>
-  </si>
-  <si>
     <t>Prudential Financial, Inc.</t>
   </si>
   <si>
     <t>UNH</t>
   </si>
   <si>
+    <t>AIG</t>
+  </si>
+  <si>
     <t>MET</t>
-  </si>
-  <si>
-    <t>AIG</t>
   </si>
   <si>
     <t>PRU</t>
@@ -516,16 +516,16 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>329.26</v>
+        <v>330.91</v>
       </c>
       <c r="E2">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
       <c r="F2">
-        <v>-0.15</v>
+        <v>0.35</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -537,7 +537,7 @@
         <v>46</v>
       </c>
       <c r="K2">
-        <v>54.9</v>
+        <v>58.9</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -546,7 +546,7 @@
         <v>25</v>
       </c>
       <c r="N2">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -563,28 +563,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>78.34999999999999</v>
+        <v>77.03</v>
       </c>
       <c r="E3">
-        <v>48.5</v>
+        <v>44.9</v>
       </c>
       <c r="F3">
-        <v>2.34</v>
+        <v>1.14</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I3">
         <v>50</v>
       </c>
       <c r="J3">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>52.7</v>
+        <v>53.7</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -610,28 +610,28 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>76.59</v>
+        <v>78.66</v>
       </c>
       <c r="E4">
-        <v>42.2</v>
+        <v>50.1</v>
       </c>
       <c r="F4">
-        <v>0.5600000000000001</v>
+        <v>2.74</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I4">
         <v>50</v>
       </c>
       <c r="J4">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>49.7</v>
+        <v>53.7</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -657,28 +657,28 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>111.3</v>
+        <v>111.68</v>
       </c>
       <c r="E5">
-        <v>69.40000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="F5">
-        <v>2.82</v>
+        <v>3.17</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I5">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J5">
         <v>43</v>
       </c>
       <c r="K5">
-        <v>47.1</v>
+        <v>40.9</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="N5">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>
